--- a/Kuis Pekan UAS/Manual/Manual.xlsx
+++ b/Kuis Pekan UAS/Manual/Manual.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dimas\Kuliah\Semester 3\Statistik dan Prob\UAS\Fix\Manual\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dimas\Kuliah\Semester 3\Statistik dan Prob\UAS\Kuis Pekan UAS\Manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8A72E0F2-B109-4882-99E4-35268A14A894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197181B5-C92F-4C14-AB38-8077C52D88CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{06DB5CEF-9210-40A4-A79D-3D0CB7B9952A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06DB5CEF-9210-40A4-A79D-3D0CB7B9952A}"/>
   </bookViews>
   <sheets>
     <sheet name="Manual" sheetId="1" r:id="rId1"/>
@@ -129,6 +129,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="8">
+    <numFmt numFmtId="167" formatCode="0.0000000"/>
+    <numFmt numFmtId="168" formatCode="0.00000000"/>
+    <numFmt numFmtId="170" formatCode="0.0000000000"/>
+    <numFmt numFmtId="172" formatCode="0.000000000000"/>
+    <numFmt numFmtId="173" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="174" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="175" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="176" formatCode="0.0000000000000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -186,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -196,6 +206,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,11 +534,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2BB1FCE-A598-43B2-8D11-D24778A4D7CB}">
   <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1005,22 +1036,22 @@
       <c r="J18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="6">
         <v>69.428733952424594</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="8">
         <v>26.640410939831842</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="9">
         <v>2.606143505414817</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18" s="11">
         <v>1.0663945183888187E-2</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="8">
         <v>16.52615757318825</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="7">
         <v>122.33131033166094</v>
       </c>
       <c r="Q18" s="1">
@@ -1052,22 +1083,22 @@
       <c r="J19" s="1">
         <v>97</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="10">
         <v>-3.918238777213702E-2</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="7">
         <v>3.3109119790995102E-2</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="9">
         <v>-1.1834318767602425</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19" s="10">
         <v>0.23965428613156625</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="10">
         <v>-0.10493053792448824</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="11">
         <v>2.65657623802142E-2</v>
       </c>
       <c r="Q19" s="1">
@@ -1099,22 +1130,22 @@
       <c r="J20" s="1">
         <v>2</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="9">
         <v>-6.8989592430233166</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="9">
         <v>3.537324775269862</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="9">
         <v>-1.9503324351937676</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20" s="10">
         <v>5.4147606464467972E-2</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="8">
         <v>-13.923385199684635</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="7">
         <v>0.12546671363800055</v>
       </c>
       <c r="Q20" s="1">
@@ -1146,22 +1177,22 @@
       <c r="J21" s="1">
         <v>97</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="11">
         <v>-1.2121066940930753E-2</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="11">
         <v>2.6899694313166175E-2</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="10">
         <v>-0.45060240461535811</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21" s="10">
         <v>0.65332490815831568</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="11">
         <v>-6.5538528713364116E-2</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="8">
         <v>4.1296394831502617E-2</v>
       </c>
       <c r="Q21" s="1">
@@ -1193,25 +1224,25 @@
       <c r="J22" s="1">
         <v>2</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="8">
         <v>-10.207962757017421</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="9">
         <v>3.746352065748451</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="9">
         <v>-2.7247740142591379</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22" s="10">
         <v>7.6874718900871641E-3</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="8">
         <v>-17.647475486358914</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="9">
         <v>-2.7684500276759305</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="5">
         <v>-17.647475486358914</v>
       </c>
       <c r="R22" s="1">
@@ -1240,28 +1271,28 @@
       <c r="J23" s="2">
         <v>2</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="13">
         <v>5.9887577140597061</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="12">
         <v>12.952102498534655</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="14">
         <v>0.46237726382548688</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="14">
         <v>0.64489076085429387</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23" s="12">
         <v>-19.731550927123461</v>
       </c>
-      <c r="P23" s="2">
+      <c r="P23" s="12">
         <v>31.709066355242872</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q23" s="15">
         <v>-19.731550927123461</v>
       </c>
-      <c r="R23" s="2">
+      <c r="R23" s="16">
         <v>31.709066355242872</v>
       </c>
     </row>
